--- a/DataSources/Epidemics/GoogleFlu.xlsx
+++ b/DataSources/Epidemics/GoogleFlu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimie_faucett\Documents\FilmArrayTrend\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimie_faucett\Documents\FilmArrayTrend\DataSources\Epidemics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -217,6 +217,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +261,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4559,11 +4563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="308515648"/>
-        <c:axId val="304680440"/>
+        <c:axId val="317861136"/>
+        <c:axId val="317861528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308515648"/>
+        <c:axId val="317861136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4606,7 +4610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304680440"/>
+        <c:crossAx val="317861528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4614,7 +4618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304680440"/>
+        <c:axId val="317861528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,7 +4669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308515648"/>
+        <c:crossAx val="317861136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5305,15 +5309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8403,7 +8407,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:M59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -11442,13 +11446,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E596"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -11466,7 +11471,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -11477,7 +11482,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -11488,7 +11493,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -11499,7 +11504,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -11510,7 +11515,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -11521,7 +11526,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -11532,7 +11537,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8">
@@ -11543,7 +11548,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9">
@@ -11554,7 +11559,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B10">
@@ -11565,7 +11570,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B11">
@@ -11576,7 +11581,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B12">
@@ -11587,7 +11592,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B13">
@@ -11598,7 +11603,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B14">
@@ -11609,7 +11614,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B15">
@@ -11620,7 +11625,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B16">
@@ -11631,7 +11636,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B17">
@@ -11642,7 +11647,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B18">
@@ -11653,7 +11658,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B19">
@@ -11664,7 +11669,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B20">
@@ -11675,7 +11680,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B21">
@@ -11686,7 +11691,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B22">
@@ -11697,7 +11702,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B23">
@@ -11708,7 +11713,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B24">
@@ -11719,7 +11724,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B25">
@@ -11730,7 +11735,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B26">
@@ -11741,7 +11746,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B27">
@@ -11752,7 +11757,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B28">
@@ -11763,7 +11768,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B29">
@@ -11774,7 +11779,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B30">
@@ -11785,7 +11790,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31">
@@ -11796,7 +11801,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B32">
@@ -11807,7 +11812,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33">
@@ -11818,7 +11823,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34">
@@ -11829,7 +11834,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B35">
@@ -11840,7 +11845,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B36">
@@ -11851,7 +11856,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B37">
@@ -11862,7 +11867,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B38">
@@ -11873,7 +11878,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B39">
@@ -11884,7 +11889,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B40">
@@ -11895,7 +11900,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B41">
@@ -11906,7 +11911,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B42">
@@ -11917,7 +11922,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43">
@@ -11928,7 +11933,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B44">
@@ -11939,7 +11944,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B45">
@@ -11950,7 +11955,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B46">
@@ -11961,7 +11966,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B47">
@@ -11972,7 +11977,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B48">
@@ -11983,7 +11988,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B49">
@@ -11994,7 +11999,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B50">
@@ -12005,7 +12010,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B51">
@@ -12016,7 +12021,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B52">
@@ -12027,7 +12032,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B53">
@@ -12038,7 +12043,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B54">
@@ -12049,7 +12054,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B55">
@@ -12060,7 +12065,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B56">
@@ -12071,7 +12076,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B57">
@@ -12082,7 +12087,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B58">
@@ -12093,7 +12098,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B59">
@@ -12104,7 +12109,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B60">
@@ -12115,7 +12120,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B61">
@@ -12126,7 +12131,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B62">
@@ -12137,7 +12142,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B63">
@@ -12148,7 +12153,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B64">
@@ -12159,7 +12164,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B65">
@@ -12170,7 +12175,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B66">
@@ -12181,7 +12186,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B67">
@@ -12192,7 +12197,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B68">
@@ -12203,7 +12208,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B69">
@@ -12214,7 +12219,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B70">
@@ -12225,7 +12230,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B71">
@@ -12236,7 +12241,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B72">
@@ -12247,7 +12252,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B73">
@@ -12258,7 +12263,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B74">
@@ -12269,7 +12274,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B75">
@@ -12280,7 +12285,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B76">
@@ -12291,7 +12296,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B77">
@@ -12302,7 +12307,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B78">
@@ -12313,7 +12318,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B79">
@@ -12324,7 +12329,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B80">
@@ -12335,7 +12340,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B81">
@@ -12346,7 +12351,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B82">
@@ -12357,7 +12362,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B83">
@@ -12368,7 +12373,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B84">
@@ -12379,7 +12384,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B85">
@@ -12390,7 +12395,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B86">
@@ -12401,7 +12406,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B87">
@@ -12412,7 +12417,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B88">
@@ -12423,7 +12428,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B89">
@@ -12434,7 +12439,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B90">
@@ -12445,7 +12450,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B91">
@@ -12456,7 +12461,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B92">
@@ -12467,7 +12472,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B93">
@@ -12478,7 +12483,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B94">
@@ -12489,7 +12494,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B95">
@@ -12500,7 +12505,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B96">
@@ -12511,7 +12516,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B97">
@@ -12522,7 +12527,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B98">
@@ -12533,7 +12538,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B99">
@@ -12544,7 +12549,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B100">
@@ -12555,7 +12560,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B101">
@@ -12566,7 +12571,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B102">
@@ -12577,7 +12582,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B103">
@@ -12588,7 +12593,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B104">
@@ -12599,7 +12604,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B105">
@@ -12610,7 +12615,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B106">
@@ -12621,7 +12626,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B107">
@@ -12632,7 +12637,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B108">
@@ -12643,7 +12648,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B109">
@@ -12654,7 +12659,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B110">
@@ -12665,7 +12670,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B111">
@@ -12676,7 +12681,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B112">
@@ -12687,7 +12692,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B113">
@@ -12698,7 +12703,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B114">
@@ -12709,7 +12714,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B115">
@@ -12720,7 +12725,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B116">
@@ -12731,7 +12736,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B117">
@@ -12742,7 +12747,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B118">
@@ -12753,7 +12758,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B119">
@@ -12764,7 +12769,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B120">
@@ -12775,7 +12780,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B121">
@@ -12786,7 +12791,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B122">
@@ -12797,7 +12802,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B123">
@@ -12808,7 +12813,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B124">
@@ -12819,7 +12824,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B125">
@@ -12830,7 +12835,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B126">
@@ -12841,7 +12846,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B127">
@@ -12852,7 +12857,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B128">
@@ -12863,7 +12868,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B129">
@@ -12874,7 +12879,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B130">
@@ -12885,7 +12890,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B131">
@@ -12896,7 +12901,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B132">
@@ -12907,7 +12912,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B133">
@@ -12918,7 +12923,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B134">
@@ -12929,7 +12934,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B135">
@@ -12940,7 +12945,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B136">
@@ -12951,7 +12956,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B137">
@@ -12962,7 +12967,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B138">
@@ -12973,7 +12978,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B139">
@@ -12984,7 +12989,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B140">
@@ -12995,7 +13000,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B141">
@@ -13006,7 +13011,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B142">
@@ -13017,7 +13022,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B143">
@@ -13028,7 +13033,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B144">
@@ -13039,7 +13044,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B145">
@@ -13050,7 +13055,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B146">
@@ -13061,7 +13066,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B147">
@@ -13072,7 +13077,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B148">
@@ -13083,7 +13088,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B149">
@@ -13094,7 +13099,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B150">
@@ -13105,7 +13110,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B151">
@@ -13116,7 +13121,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B152">
@@ -13127,7 +13132,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B153">
@@ -13138,7 +13143,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B154">
@@ -13149,7 +13154,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B155">
@@ -13160,7 +13165,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B156">
@@ -13171,7 +13176,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B157">
@@ -13182,7 +13187,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B158">
@@ -13193,7 +13198,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B159">
@@ -13204,7 +13209,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B160">
@@ -13215,7 +13220,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B161">
@@ -13226,7 +13231,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B162">
@@ -13237,7 +13242,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B163">
@@ -13248,7 +13253,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B164">
@@ -13259,7 +13264,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B165">
@@ -13270,7 +13275,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B166">
@@ -13281,7 +13286,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B167">
@@ -13292,7 +13297,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B168">
@@ -13303,7 +13308,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B169">
@@ -13314,7 +13319,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B170">
@@ -13325,7 +13330,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B171">
@@ -13336,7 +13341,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B172">
@@ -13347,7 +13352,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B173">
@@ -13358,7 +13363,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B174">
@@ -13369,7 +13374,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B175">
@@ -13380,7 +13385,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B176">
@@ -13391,7 +13396,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B177">
@@ -13402,7 +13407,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B178">
@@ -13413,7 +13418,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B179">
@@ -13424,7 +13429,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B180">
@@ -13435,7 +13440,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B181">
@@ -13446,7 +13451,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B182">
@@ -13457,7 +13462,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B183">
@@ -13468,7 +13473,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B184">
@@ -13479,7 +13484,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B185">
@@ -13490,7 +13495,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B186">
@@ -13501,7 +13506,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B187">
@@ -13512,7 +13517,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B188">
@@ -13523,7 +13528,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B189">
@@ -13534,7 +13539,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B190">
@@ -13545,7 +13550,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B191">
@@ -13556,7 +13561,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B192">
@@ -13567,7 +13572,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B193">
@@ -13578,7 +13583,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B194">
@@ -13589,7 +13594,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B195">
@@ -13600,7 +13605,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B196">
@@ -13611,7 +13616,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B197">
@@ -13622,7 +13627,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B198">
@@ -13633,7 +13638,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B199">
@@ -13644,7 +13649,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B200">
@@ -13655,7 +13660,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B201">
@@ -13666,7 +13671,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B202">
@@ -13677,7 +13682,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B203">
@@ -13688,7 +13693,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B204">
@@ -13699,7 +13704,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B205">
@@ -13710,7 +13715,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B206">
@@ -13721,7 +13726,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B207">
@@ -13732,7 +13737,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B208">
@@ -13743,7 +13748,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B209">
@@ -13754,7 +13759,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B210">
@@ -13765,7 +13770,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B211">
@@ -13776,7 +13781,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B212">
@@ -13787,7 +13792,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B213">
@@ -13798,7 +13803,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B214">
@@ -13809,7 +13814,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B215">
@@ -13820,7 +13825,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B216">
@@ -13831,7 +13836,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B217">
@@ -13842,7 +13847,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B218">
@@ -13853,7 +13858,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B219">
@@ -13864,7 +13869,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B220">
@@ -13875,7 +13880,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B221">
@@ -13886,7 +13891,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B222">
@@ -13897,7 +13902,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B223">
@@ -13908,7 +13913,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B224">
@@ -13919,7 +13924,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B225">
@@ -13930,7 +13935,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B226">
@@ -13941,7 +13946,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B227">
@@ -13952,7 +13957,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B228">
@@ -13963,7 +13968,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B229">
@@ -13974,7 +13979,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B230">
@@ -13985,7 +13990,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B231">
@@ -13996,7 +14001,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B232">
@@ -14007,7 +14012,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B233">
@@ -14018,7 +14023,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B234">
@@ -14029,7 +14034,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B235">
@@ -14040,7 +14045,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B236">
@@ -14051,7 +14056,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B237">
@@ -14062,7 +14067,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B238">
@@ -14073,7 +14078,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B239">
@@ -14084,7 +14089,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B240">
@@ -14095,7 +14100,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B241">
@@ -14106,7 +14111,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B242">
@@ -14117,7 +14122,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B243">
@@ -14128,7 +14133,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B244">
@@ -14139,7 +14144,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B245">
@@ -14150,7 +14155,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B246">
@@ -14161,7 +14166,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B247">
@@ -14172,7 +14177,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B248">
@@ -14183,7 +14188,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B249">
@@ -14194,7 +14199,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B250">
@@ -14205,7 +14210,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B251">
@@ -14216,7 +14221,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B252">
@@ -14227,7 +14232,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B253">
@@ -14238,7 +14243,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B254">
@@ -14249,7 +14254,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B255">
@@ -14260,7 +14265,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B256">
@@ -14271,7 +14276,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B257">
@@ -14282,7 +14287,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B258">
@@ -14293,7 +14298,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B259">
@@ -14304,7 +14309,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B260">
@@ -14315,7 +14320,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B261">
@@ -14326,7 +14331,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B262">
@@ -14337,7 +14342,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B263">
@@ -14348,7 +14353,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B264">
@@ -14359,7 +14364,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B265">
@@ -14370,7 +14375,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B266">
@@ -14381,7 +14386,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B267">
@@ -14392,7 +14397,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B268">
@@ -14403,7 +14408,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B269">
@@ -14414,7 +14419,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B270">
@@ -14425,7 +14430,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B271">
@@ -14436,7 +14441,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B272">
@@ -14447,7 +14452,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B273">
@@ -14458,7 +14463,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B274">
@@ -14469,7 +14474,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B275">
@@ -14480,7 +14485,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B276">
@@ -14491,7 +14496,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B277">
@@ -14502,7 +14507,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B278">
@@ -14513,7 +14518,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B279">
@@ -14524,7 +14529,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B280">
@@ -14535,7 +14540,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B281">
@@ -14546,7 +14551,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B282">
@@ -14557,7 +14562,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B283">
@@ -14568,7 +14573,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B284">
@@ -14579,7 +14584,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B285">
@@ -14590,7 +14595,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B286">
@@ -14601,7 +14606,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B287">
@@ -14612,7 +14617,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B288">
@@ -14623,7 +14628,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B289">
@@ -14634,7 +14639,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B290">
@@ -14645,7 +14650,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B291">
@@ -14656,7 +14661,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B292">
@@ -14667,7 +14672,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B293">
@@ -14678,7 +14683,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B294">
@@ -14689,7 +14694,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B295">
@@ -14700,7 +14705,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B296">
@@ -14711,7 +14716,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B297">
@@ -14722,7 +14727,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B298">
@@ -14733,7 +14738,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B299">
@@ -14744,7 +14749,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B300">
@@ -14755,7 +14760,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B301">
@@ -14766,7 +14771,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B302">
@@ -14777,7 +14782,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B303">
@@ -14788,7 +14793,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B304">
@@ -14799,7 +14804,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B305">
@@ -14810,7 +14815,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B306">
@@ -14821,7 +14826,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B307">
@@ -14832,7 +14837,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B308">
@@ -14843,7 +14848,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B309">
@@ -14854,7 +14859,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B310">
@@ -14865,7 +14870,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B311">
@@ -14876,7 +14881,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B312">
@@ -14887,7 +14892,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B313">
@@ -14898,7 +14903,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B314">
@@ -14909,7 +14914,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B315">
@@ -14920,7 +14925,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B316">
@@ -14931,7 +14936,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B317">
@@ -14942,7 +14947,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B318">
@@ -14953,7 +14958,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B319">
@@ -14964,7 +14969,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B320">
@@ -14975,7 +14980,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B321">
@@ -14986,7 +14991,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B322">
@@ -14997,7 +15002,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B323">
@@ -15008,7 +15013,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B324">
@@ -15019,7 +15024,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B325">
@@ -15030,7 +15035,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B326">
@@ -15041,7 +15046,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B327">
@@ -15052,7 +15057,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B328">
@@ -15063,7 +15068,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B329">
@@ -15074,7 +15079,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B330">
@@ -15085,7 +15090,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B331">
@@ -15096,7 +15101,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B332">
@@ -15107,7 +15112,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B333">
@@ -15118,7 +15123,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B334">
@@ -15129,7 +15134,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B335">
@@ -15140,7 +15145,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B336">
@@ -15151,7 +15156,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B337">
@@ -15162,7 +15167,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B338">
@@ -15173,7 +15178,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B339">
@@ -15184,7 +15189,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B340">
@@ -15195,7 +15200,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B341">
@@ -15206,7 +15211,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B342">
@@ -15217,7 +15222,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B343">
@@ -15228,7 +15233,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B344">
@@ -15239,7 +15244,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B345">
@@ -15250,7 +15255,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B346">
@@ -15261,7 +15266,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B347">
@@ -15272,7 +15277,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B348">
@@ -15283,7 +15288,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B349">
@@ -15294,7 +15299,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B350">
@@ -15305,7 +15310,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B351">
@@ -15316,7 +15321,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B352">
@@ -15327,7 +15332,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B353">
@@ -15338,7 +15343,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B354">
@@ -15349,7 +15354,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B355">
@@ -15360,7 +15365,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B356">
@@ -15371,7 +15376,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B357">
@@ -15382,7 +15387,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B358">
@@ -15393,7 +15398,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B359">
@@ -15404,7 +15409,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B360">
@@ -15415,7 +15420,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B361">
@@ -15426,7 +15431,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B362">
@@ -15437,7 +15442,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B363">
@@ -15448,7 +15453,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B364">
@@ -15459,7 +15464,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B365">
@@ -15470,7 +15475,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B366">
@@ -15481,7 +15486,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B367">
@@ -15492,7 +15497,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B368">
@@ -15503,7 +15508,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B369">
@@ -15514,7 +15519,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B370">
@@ -15525,7 +15530,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B371">
@@ -15536,7 +15541,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B372">
@@ -15547,7 +15552,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B373">
@@ -15558,7 +15563,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B374">
@@ -15569,7 +15574,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B375">
@@ -15580,7 +15585,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B376">
@@ -15591,7 +15596,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B377">
@@ -15602,7 +15607,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B378">
@@ -15613,7 +15618,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B379">
@@ -15624,7 +15629,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B380">
@@ -15635,7 +15640,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B381">
@@ -15646,7 +15651,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B382">
@@ -15657,7 +15662,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B383">
@@ -15668,7 +15673,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B384">
@@ -15679,7 +15684,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B385">
@@ -15690,7 +15695,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B386">
@@ -15701,7 +15706,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B387">
@@ -15712,7 +15717,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B388">
@@ -15723,7 +15728,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B389">
@@ -15734,7 +15739,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B390">
@@ -15745,7 +15750,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B391">
@@ -15756,7 +15761,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B392">
@@ -15767,7 +15772,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B393">
@@ -15778,7 +15783,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B394">
@@ -15789,7 +15794,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B395">
@@ -15800,7 +15805,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B396">
@@ -15811,7 +15816,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B397">
@@ -15822,7 +15827,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B398">
@@ -15833,7 +15838,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B399">
@@ -15844,7 +15849,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B400">
@@ -15855,7 +15860,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B401">
@@ -15866,7 +15871,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B402">
@@ -15877,7 +15882,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B403">
@@ -15888,7 +15893,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B404">
@@ -15899,7 +15904,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B405">
@@ -15910,7 +15915,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B406">
@@ -15921,7 +15926,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B407">
@@ -15932,7 +15937,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B408">
@@ -15943,7 +15948,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B409">
@@ -15954,7 +15959,7 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B410">
@@ -15965,7 +15970,7 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B411">
@@ -15976,7 +15981,7 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B412">
@@ -15987,7 +15992,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B413">
@@ -15998,7 +16003,7 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B414">
@@ -16009,7 +16014,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B415">
@@ -16020,7 +16025,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B416">
@@ -16031,7 +16036,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B417">
@@ -16042,7 +16047,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B418">
@@ -16053,7 +16058,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B419">
@@ -16064,7 +16069,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B420">
@@ -16075,7 +16080,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B421">
@@ -16086,7 +16091,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B422">
@@ -16097,7 +16102,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B423">
@@ -16108,7 +16113,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B424">
@@ -16119,7 +16124,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B425">
@@ -16130,7 +16135,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B426">
@@ -16141,7 +16146,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B427">
@@ -16152,7 +16157,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B428">
@@ -16163,7 +16168,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B429">
@@ -16174,7 +16179,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B430">
@@ -16185,7 +16190,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B431">
@@ -16196,7 +16201,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B432">
@@ -16207,7 +16212,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B433">
@@ -16218,7 +16223,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B434">
@@ -16229,7 +16234,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B435">
@@ -16240,7 +16245,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B436">
@@ -16251,7 +16256,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B437">
@@ -16262,7 +16267,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B438">
@@ -16273,7 +16278,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B439">
@@ -16284,7 +16289,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B440">
@@ -16295,7 +16300,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B441">
@@ -16306,7 +16311,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B442">
@@ -16317,7 +16322,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B443">
@@ -16328,7 +16333,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B444">
@@ -16339,7 +16344,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B445">
@@ -16350,7 +16355,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B446">
@@ -16361,7 +16366,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B447">
@@ -16372,7 +16377,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B448">
@@ -16383,7 +16388,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B449">
@@ -16394,7 +16399,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B450">
@@ -16405,7 +16410,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B451">
@@ -16416,7 +16421,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B452">
@@ -16427,7 +16432,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B453">
@@ -16438,7 +16443,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B454">
@@ -16449,7 +16454,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B455">
@@ -16460,7 +16465,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B456">
@@ -16471,7 +16476,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B457">
@@ -16482,7 +16487,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B458">
@@ -16493,7 +16498,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B459">
@@ -16504,7 +16509,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B460">
@@ -16515,7 +16520,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B461">
@@ -16526,7 +16531,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B462">
@@ -16537,7 +16542,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B463">
@@ -16548,7 +16553,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B464">
@@ -16559,7 +16564,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B465">
@@ -16570,7 +16575,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B466">
@@ -16581,7 +16586,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B467">
@@ -16592,7 +16597,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B468">
@@ -16603,7 +16608,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B469">
@@ -16614,7 +16619,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B470">
@@ -16625,7 +16630,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B471">
@@ -16636,7 +16641,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B472">
@@ -16647,7 +16652,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B473">
@@ -16658,7 +16663,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B474">
@@ -16669,7 +16674,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B475">
@@ -16680,7 +16685,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B476">
@@ -16691,7 +16696,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B477">
@@ -16702,7 +16707,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B478">
@@ -16713,7 +16718,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B479">
@@ -16724,7 +16729,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B480">
@@ -16735,7 +16740,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B481">
@@ -16746,7 +16751,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B482">
@@ -16757,7 +16762,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B483">
@@ -16768,7 +16773,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B484">
@@ -16779,7 +16784,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B485">
@@ -16790,7 +16795,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B486">
@@ -16801,7 +16806,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B487">
@@ -16812,7 +16817,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B488">
@@ -16823,7 +16828,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B489">
@@ -16834,7 +16839,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B490">
@@ -16845,7 +16850,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B491">
@@ -16856,7 +16861,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B492">
@@ -16867,7 +16872,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B493">
@@ -16878,7 +16883,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B494">
@@ -16889,7 +16894,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B495">
@@ -16900,7 +16905,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B496">
@@ -16911,7 +16916,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B497">
@@ -16922,7 +16927,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B498">
@@ -16933,7 +16938,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B499">
@@ -16944,7 +16949,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B500">
@@ -16955,7 +16960,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B501">
@@ -16966,7 +16971,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B502">
@@ -16977,7 +16982,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B503">
@@ -16988,7 +16993,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B504">
@@ -16999,7 +17004,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B505">
@@ -17010,7 +17015,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B506">
@@ -17021,7 +17026,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B507">
@@ -17032,7 +17037,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B508">
@@ -17043,7 +17048,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B509">
@@ -17054,7 +17059,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B510">
@@ -17065,7 +17070,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B511">
@@ -17076,7 +17081,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B512">
@@ -17087,7 +17092,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B513">
@@ -17098,7 +17103,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B514">
@@ -17109,7 +17114,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B515">
@@ -17120,7 +17125,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B516">
@@ -17131,7 +17136,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B517">
@@ -17142,7 +17147,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B518">
@@ -17153,7 +17158,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B519">
@@ -17164,7 +17169,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B520">
@@ -17175,7 +17180,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B521">
@@ -17186,7 +17191,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B522">
@@ -17197,7 +17202,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B523">
@@ -17208,7 +17213,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B524">
@@ -17219,7 +17224,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B525">
@@ -17230,7 +17235,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B526">
@@ -17241,7 +17246,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B527">
@@ -17252,7 +17257,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B528">
@@ -17262,8 +17267,8 @@
         <v>1.365</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="1" t="s">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B529">
@@ -17273,8 +17278,8 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B530">
@@ -17284,8 +17289,8 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="1" t="s">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B531">
@@ -17295,8 +17300,8 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="s">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B532">
@@ -17306,8 +17311,8 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="1" t="s">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B533">
@@ -17317,8 +17322,8 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="1" t="s">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B534">
@@ -17328,8 +17333,8 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="1" t="s">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B535">
@@ -17339,8 +17344,8 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="1" t="s">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B536">
@@ -17350,8 +17355,8 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="1" t="s">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B537">
@@ -17361,8 +17366,8 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="1" t="s">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B538">
@@ -17372,8 +17377,8 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="1" t="s">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B539">
@@ -17383,8 +17388,8 @@
         <v>1.762</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="1" t="s">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B540">
@@ -17394,8 +17399,8 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="1">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" s="7">
         <v>41896</v>
       </c>
       <c r="B541">
@@ -17405,9 +17410,10 @@
       <c r="C541" s="5">
         <v>1.228</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="1">
+      <c r="E541" s="1"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" s="7">
         <v>41896</v>
       </c>
       <c r="B542">
@@ -17418,8 +17424,8 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="1">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" s="7">
         <v>41896</v>
       </c>
       <c r="B543">
@@ -17430,8 +17436,8 @@
         <v>1.881</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="1">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" s="7">
         <v>41896</v>
       </c>
       <c r="B544">
@@ -17443,7 +17449,7 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="1">
+      <c r="A545" s="7">
         <v>41896</v>
       </c>
       <c r="B545">
@@ -17455,7 +17461,7 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="1">
+      <c r="A546" s="7">
         <v>41896</v>
       </c>
       <c r="B546">
@@ -17467,7 +17473,7 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="1">
+      <c r="A547" s="7">
         <v>41896</v>
       </c>
       <c r="B547">
@@ -17479,7 +17485,7 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="1">
+      <c r="A548" s="7">
         <v>41896</v>
       </c>
       <c r="B548">
@@ -17491,7 +17497,7 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="1">
+      <c r="A549" s="7">
         <v>41896</v>
       </c>
       <c r="B549">
@@ -17503,7 +17509,7 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="1">
+      <c r="A550" s="7">
         <v>41896</v>
       </c>
       <c r="B550">
@@ -17515,7 +17521,7 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="1">
+      <c r="A551" s="7">
         <v>41896</v>
       </c>
       <c r="B551">
